--- a/DungeonsGame/Assets/art/Resources/database/items.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/items.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet name="creature" sheetId="1" r:id="rId1"/>
-    <sheet name="item" sheetId="2" r:id="rId2"/>
-    <sheet name="equipment" sheetId="3" r:id="rId3"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Design" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Administrator - 个人视图" guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -146,200 +147,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" guid="{C855F0F7-76B6-493B-A0D6-8E8C8FBAA15C}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int roomId;
-int oldroomId;
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" guid="{347BED87-7404-4BED-A1B9-485440A78049}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int grid;
-int roomId;
-int roomx;
-int roomy;
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" guid="{26DFCE53-3A0B-4B9D-90FA-CDF047DE2A21}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int x;
-int y;
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" guid="{067756B6-A09F-4B30-A5DE-A0A325FB9E0D}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int roomId;
-int oldroomId;
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" guid="{BC99EC93-D173-4FF1-BAA4-CEE035A70D8C}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int grid;
-int roomId;
-int roomx;
-int roomy;
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" guid="{2D737B2F-BD77-42B3-AF56-488FF474CB80}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int x;
-int y;
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -624,98 +433,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -779,7 +497,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{10EAFC57-C250-4B65-9CC7-32A7D5DB1436}" diskRevisions="1" revisionId="292" version="29">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4BF99597-FFCE-4FAA-9E34-C11AC5FE39B1}" diskRevisions="1" revisionId="314" version="30">
   <header guid="{3C4199BB-AC08-4019-AACE-856CE51802E2}" dateTime="2016-10-29T13:52:50" maxSheetId="4" userName="Administrator" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -983,6 +701,13 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{4BF99597-FFCE-4FAA-9E34-C11AC5FE39B1}" dateTime="2016-11-14T15:43:14" maxSheetId="4" userName="Administrator" r:id="rId30" minRId="293" maxRId="314">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4613,6 +4338,689 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="293" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <r>
+            <t>i</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>nt</t>
+          </r>
+          <phoneticPr fontId="1" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="294" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="295" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Room</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>int,int</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="296" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Position</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>int,int,vector3</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="297" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Interactive</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="298" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Dir</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>vector2</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="299" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Pool</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="300" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Asset</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="301" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Controlable</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="302" sId="2" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+  </rrc>
+  <rrc rId="303" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <r>
+            <t>i</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>nt</t>
+          </r>
+          <phoneticPr fontId="1" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="304" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="305" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Room</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>int,int</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="306" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Position</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>int,int,vector3</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="307" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Interactive</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="308" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Dir</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>vector2</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="309" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Pool</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="310" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Asset</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="311" sId="3" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Controlable</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rsnm rId="312" sheetId="1" oldName="[items.xlsx]creature" newName="[items.xlsx]Items"/>
+  <rsnm rId="313" sheetId="2" oldName="[items.xlsx]item" newName="[items.xlsx]Design"/>
+  <rsnm rId="314" sheetId="3" oldName="[items.xlsx]equipment" newName="[items.xlsx]sheet"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1">
@@ -6318,8 +6726,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{10EAFC57-C250-4B65-9CC7-32A7D5DB1436}" name="Administrator" id="-524801080" dateTime="2016-11-14T15:35:32"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6587,8 +6997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6760,17 +7170,17 @@
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:XFD1 A1:C1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6779,84 +7189,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <customSheetViews>
     <customSheetView guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}">
       <selection activeCell="I11" sqref="I11"/>
@@ -6864,103 +7205,23 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <customSheetViews>
     <customSheetView guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}">
       <selection sqref="A1:XFD1048576"/>
@@ -6968,30 +7229,9 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:I1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="3" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DungeonsGame/Assets/art/Resources/database/items.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/items.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -292,18 +292,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,7 +308,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,int,vector3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inPools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>nul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,-10|-10|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,-10|-10|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,-10|-10|0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,115 +808,144 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>11001</v>
+      <c r="A3" s="4">
+        <v>-1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>11003</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +957,10 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1 B3:B1048576">
+  <conditionalFormatting sqref="B4:B1048576 B1">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A3:A1048576">
+  <conditionalFormatting sqref="A4:A1048576 A1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:XFD1 A1:C1">

--- a/DungeonsGame/Assets/art/Resources/database/items.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/items.xlsx
@@ -56,97 +56,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" guid="{62D619E4-BA17-460D-A86B-017F5CEA362D}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int roomId;
-int oldroomId;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" guid="{BE5C3682-291C-4161-B4A3-3F9F54B49D99}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int grid;
-int roomId;
-int roomx;
-int roomy;
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" guid="{900A2D1A-E15E-435A-93D9-C99086760070}" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int x;
-int y;
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -162,125 +77,19 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Room</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interactive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controlable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inPools</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Objects</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_D_apple</t>
@@ -445,198 +254,18 @@
     <t>I_S_trap</t>
   </si>
   <si>
-    <t>Items/I_D_apple</t>
-  </si>
-  <si>
-    <t>Items/I_D_armorg</t>
-  </si>
-  <si>
-    <t>Items/I_D_armors</t>
-  </si>
-  <si>
-    <t>Items/I_D_arrowg</t>
-  </si>
-  <si>
-    <t>Items/I_D_arrows</t>
-  </si>
-  <si>
-    <t>Items/I_D_axe</t>
-  </si>
-  <si>
-    <t>Items/I_D_bloodn</t>
-  </si>
-  <si>
-    <t>Items/I_D_bloods</t>
-  </si>
-  <si>
-    <t>Items/I_D_bread</t>
-  </si>
-  <si>
-    <t>Items/I_D_cake</t>
-  </si>
-  <si>
-    <t>Items/I_D_coinb</t>
-  </si>
-  <si>
-    <t>Items/I_D_coinm</t>
-  </si>
-  <si>
-    <t>Items/I_D_coins</t>
-  </si>
-  <si>
-    <t>Items/I_D_copper</t>
-  </si>
-  <si>
-    <t>Items/I_D_cream</t>
-  </si>
-  <si>
-    <t>Items/I_D_crossbow</t>
-  </si>
-  <si>
-    <t>Items/I_D_diamond</t>
-  </si>
-  <si>
-    <t>Items/I_D_gloveg</t>
-  </si>
-  <si>
-    <t>Items/I_D_gloves</t>
-  </si>
-  <si>
-    <t>Items/I_D_gold</t>
-  </si>
-  <si>
-    <t>Items/I_D_goldKey</t>
-  </si>
-  <si>
-    <t>Items/I_D_grape</t>
-  </si>
-  <si>
-    <t>Items/I_D_helmetg</t>
-  </si>
-  <si>
-    <t>Items/I_D_helmets</t>
-  </si>
-  <si>
-    <t>Items/I_D_knife</t>
-  </si>
-  <si>
-    <t>Items/I_D_meat</t>
-  </si>
-  <si>
-    <t>Items/I_D_mushrooma</t>
-  </si>
-  <si>
-    <t>Items/I_D_mushroomb</t>
-  </si>
-  <si>
-    <t>Items/I_D_mushroomc</t>
-  </si>
-  <si>
-    <t>Items/I_D_package</t>
-  </si>
-  <si>
-    <t>Items/I_D_pear</t>
-  </si>
-  <si>
-    <t>Items/I_D_pepper</t>
-  </si>
-  <si>
-    <t>Items/I_D_reel</t>
-  </si>
-  <si>
-    <t>Items/I_D_ringc</t>
-  </si>
-  <si>
-    <t>Items/I_D_ringd</t>
-  </si>
-  <si>
-    <t>Items/I_D_ringg</t>
-  </si>
-  <si>
-    <t>Items/I_D_rings</t>
-  </si>
-  <si>
-    <t>Items/I_D_roda</t>
-  </si>
-  <si>
-    <t>Items/I_D_rodb</t>
-  </si>
-  <si>
-    <t>Items/I_D_shielda</t>
-  </si>
-  <si>
-    <t>Items/I_D_shieldb</t>
-  </si>
-  <si>
-    <t>Items/I_D_shoesc</t>
-  </si>
-  <si>
-    <t>Items/I_D_shoesg</t>
-  </si>
-  <si>
-    <t>Items/I_D_shoess</t>
-  </si>
-  <si>
-    <t>Items/I_D_sliver</t>
-  </si>
-  <si>
-    <t>Items/I_D_sliverKey</t>
-  </si>
-  <si>
-    <t>Items/I_D_stick</t>
-  </si>
-  <si>
-    <t>Items/I_L_door</t>
-  </si>
-  <si>
-    <t>Items/I_P_blood</t>
-  </si>
-  <si>
-    <t>Items/I_P_null</t>
-  </si>
-  <si>
-    <t>Items/I_P_shadow</t>
-  </si>
-  <si>
-    <t>Items/I_R_normalChest</t>
-  </si>
-  <si>
-    <t>Items/I_R_rareChest</t>
-  </si>
-  <si>
-    <t>Items/I_S_trap</t>
-  </si>
-  <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>int,vector3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-10|-10|0</t>
-  </si>
-  <si>
-    <t>0,-10|-10|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>I_S_candles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -690,13 +319,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -753,7 +382,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{70C797F7-7560-4603-AA58-5358ABB5EAD5}" diskRevisions="1" revisionId="856" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4E1BB024-6AF4-4731-85A5-10AB1F9CFDB2}" diskRevisions="1" revisionId="865" version="7">
   <header guid="{C5C8FC43-B136-4688-9F8C-F8446FDCF458}" dateTime="2016-11-28T17:12:48" maxSheetId="2" userName="Administrator" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -786,6 +415,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{4E1BB024-6AF4-4731-85A5-10AB1F9CFDB2}" dateTime="2016-12-01T08:30:14" maxSheetId="3" userName="Administrator" r:id="rId7" minRId="857" maxRId="865">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -12645,10 +12280,5890 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{70C797F7-7560-4603-AA58-5358ABB5EAD5}" name="Administrator" id="-524748458" dateTime="2016-11-29T16:27:44"/>
-</users>
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="857" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Room</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>int,int</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <phoneticPr fontId="1" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <r>
+            <t>0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,0</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color theme="1"/>
+              <rFont val="等线"/>
+              <family val="2"/>
+              <charset val="134"/>
+            </rPr>
+            <t/>
+          </r>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="858" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Position</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>int,vector3</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <t>0,-10|-10|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="859" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Interactive</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>bool</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C4">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C5">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C6">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C7">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C8">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C9">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C10">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C11">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C12">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C13">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C14">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C15">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C16">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C17">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C18">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C19">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C20">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C21">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C22">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C23">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C24">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C25">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C26">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C27">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C28">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C29">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C30">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C31">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C32">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C33">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C34">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C35">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C36">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C37">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C38">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C39">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C40">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C41">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C42">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C43">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C44">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C45">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C46">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C47">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C48">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C49">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C50">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C51">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C52">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C53">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C54">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C55">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C56">
+        <v>1</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C57">
+        <v>1</v>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="860" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Dir</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>vector2</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>0|0</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>0|0</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <t>0|0</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="861" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Pool</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>inPools</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <t>Objects</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="862" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Asset</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>string</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>Items/I_D_apple</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>Items/I_D_armorg</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>Items/I_D_armors</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <t>Items/I_D_arrowg</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <t>Items/I_D_arrows</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <t>Items/I_D_axe</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>Items/I_D_bloodn</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <t>Items/I_D_bloods</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <t>Items/I_D_bread</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <t>Items/I_D_cake</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>Items/I_D_coinb</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>Items/I_D_coinm</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <t>Items/I_D_coins</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <t>Items/I_D_copper</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <t>Items/I_D_cream</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <t>Items/I_D_crossbow</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <t>Items/I_D_diamond</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>Items/I_D_gloveg</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <t>Items/I_D_gloves</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>Items/I_D_gold</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <t>Items/I_D_goldKey</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>Items/I_D_grape</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <t>Items/I_D_helmetg</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <t>Items/I_D_helmets</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <t>Items/I_D_knife</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <t>Items/I_D_meat</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <t>Items/I_D_mushrooma</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <t>Items/I_D_mushroomb</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <t>Items/I_D_mushroomc</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <t>Items/I_D_package</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <t>Items/I_D_pear</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <t>Items/I_D_pepper</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <t>Items/I_D_reel</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <t>Items/I_D_ringc</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <t>Items/I_D_ringd</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <t>Items/I_D_ringg</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <t>Items/I_D_rings</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <t>Items/I_D_roda</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <t>Items/I_D_rodb</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <t>Items/I_D_shielda</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <t>Items/I_D_shieldb</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <t>Items/I_D_shoesc</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <t>Items/I_D_shoesg</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <t>Items/I_D_shoess</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <t>Items/I_D_sliver</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <t>Items/I_D_sliverKey</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <t>Items/I_D_stick</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <t>Items/I_L_door</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <t>Items/I_P_blood</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <t>Items/I_P_null</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <t>Items/I_P_shadow</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <t>Items/I_R_normalChest</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <t>Items/I_R_rareChest</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <t>Items/I_S_trap</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="863" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C1" t="inlineStr">
+        <is>
+          <t>Controlable</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>bool</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color auto="1"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C7" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C8" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C9" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C11" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C12" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C13" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C16" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C17" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C18" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C19" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C20" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C22" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C24" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C26" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C27" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C28" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C29" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C30" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C31" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C32" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C33" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C34" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C35" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C36" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C37" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C38" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C39" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C40" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C41" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C42" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C43" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C44" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C45" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C46" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C47" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C48" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C49" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C50" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C51" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C52" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C53" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C54" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C55" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C56" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C57" t="inlineStr">
+        <is>
+          <t>nul</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="864" sId="1">
+    <nc r="A58">
+      <v>11055</v>
+    </nc>
+  </rcc>
+  <rcc rId="865" sId="1">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t>I_S_candles</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12914,1677 +18429,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>-1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>11001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>11002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>11003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>11004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>11005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>11006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>11007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>11015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>11016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>11017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>11018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>11019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>11020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>11021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>11022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>11023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>11024</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>11025</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11026</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>11027</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>11028</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>11029</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>11030</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>11031</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>11032</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>11033</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>11034</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>11035</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>11036</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>11037</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>11038</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>11039</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>11040</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>11041</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>11042</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>11043</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>11044</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>11045</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>11046</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>11047</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>11048</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>11049</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>11050</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>11051</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>11052</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>11053</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>11054</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>3</v>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>11055</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>21</v>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -14595,14 +18915,14 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B1048576 B1">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A4:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:XFD1 A1:C1">
+  <conditionalFormatting sqref="D1:XFD1 A1:B1">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
@@ -14637,7 +18957,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
